--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,72 +49,72 @@
     <t>however</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>waste</t>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>junk</t>
   </si>
   <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>difficult</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
+    <t>cheap</t>
+  </si>
+  <si>
     <t>thought</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
@@ -142,16 +142,22 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>perfect</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>loved</t>
@@ -532,7 +538,7 @@
         <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -614,13 +620,13 @@
         <v>37</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -632,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -640,13 +646,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8409090909090909</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,19 +664,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -682,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -690,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -708,19 +714,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K5">
-        <v>0.6881720430107527</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="L5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="M5">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -732,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -740,13 +746,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7605633802816901</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -758,19 +764,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K6">
-        <v>0.6037735849056604</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -782,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -790,13 +796,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7378640776699029</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C7">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D7">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -808,19 +814,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -832,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -840,13 +846,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7258064516129032</v>
+        <v>0.6844660194174758</v>
       </c>
       <c r="C8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="D8">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -858,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K8">
-        <v>0.3467213114754099</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>423</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -882,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>797</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -890,13 +896,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6904761904761905</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="C9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="D9">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -908,19 +914,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K9">
-        <v>0.2883817427385892</v>
+        <v>0.3336065573770492</v>
       </c>
       <c r="L9">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="M9">
-        <v>139</v>
+        <v>407</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -932,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>343</v>
+        <v>813</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -940,13 +946,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6756756756756757</v>
+        <v>0.625</v>
       </c>
       <c r="C10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="D10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -958,19 +964,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K10">
-        <v>0.2855093256814921</v>
+        <v>0.2926829268292683</v>
       </c>
       <c r="L10">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="M10">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -982,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -990,13 +996,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6050420168067226</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C11">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="D11">
-        <v>72</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1008,19 +1014,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K11">
-        <v>0.2168674698795181</v>
+        <v>0.2655601659751037</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1032,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>130</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1040,13 +1046,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5818181818181818</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1058,19 +1064,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K12">
-        <v>0.1804281345565749</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L12">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="M12">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1082,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>268</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1090,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5043478260869565</v>
+        <v>0.4869565217391305</v>
       </c>
       <c r="C13">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D13">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1108,19 +1114,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K13">
-        <v>0.08501314636283962</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="L13">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1132,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1044</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,13 +1146,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4173228346456693</v>
+        <v>0.4337349397590362</v>
       </c>
       <c r="C14">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="D14">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1158,19 +1164,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K14">
-        <v>0.0317975340687865</v>
+        <v>0.1651376146788991</v>
       </c>
       <c r="L14">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1182,7 +1188,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1492</v>
+        <v>273</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1190,13 +1196,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3855421686746988</v>
+        <v>0.4</v>
       </c>
       <c r="C15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1208,7 +1214,31 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>51</v>
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15">
+        <v>0.08238387379491674</v>
+      </c>
+      <c r="L15">
+        <v>94</v>
+      </c>
+      <c r="M15">
+        <v>94</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>1047</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1216,13 +1246,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3684210526315789</v>
+        <v>0.3858267716535433</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1234,7 +1264,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>60</v>
+        <v>78</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16">
+        <v>0.0285899935022742</v>
+      </c>
+      <c r="L16">
+        <v>44</v>
+      </c>
+      <c r="M16">
+        <v>46</v>
+      </c>
+      <c r="N16">
+        <v>0.96</v>
+      </c>
+      <c r="O16">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>1495</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1242,13 +1296,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3515625</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C17">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1260,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1268,13 +1322,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3217821782178218</v>
+        <v>0.359375</v>
       </c>
       <c r="C18">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D18">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1286,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>137</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1294,13 +1348,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2938388625592417</v>
+        <v>0.2890995260663507</v>
       </c>
       <c r="C19">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1312,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1320,13 +1374,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.264957264957265</v>
+        <v>0.2871287128712871</v>
       </c>
       <c r="C20">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1338,7 +1392,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>86</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1346,13 +1400,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.211340206185567</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1364,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>153</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1372,13 +1426,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1691394658753709</v>
+        <v>0.2216494845360825</v>
       </c>
       <c r="C22">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D22">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1390,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>560</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1398,13 +1452,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1666666666666667</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="C23">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D23">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1416,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1424,13 +1478,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1582278481012658</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1442,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1450,13 +1504,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1582278481012658</v>
+        <v>0.1676557863501484</v>
       </c>
       <c r="C25">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1468,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>266</v>
+        <v>561</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1476,13 +1530,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1497797356828194</v>
+        <v>0.1582278481012658</v>
       </c>
       <c r="C26">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D26">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1494,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>386</v>
+        <v>266</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1502,13 +1556,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1355140186915888</v>
+        <v>0.1343612334801762</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>29</v>
+        <v>61</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1520,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>185</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1528,13 +1582,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1063218390804598</v>
+        <v>0.1120689655172414</v>
       </c>
       <c r="C28">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1546,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1554,13 +1608,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.07945205479452055</v>
+        <v>0.09315068493150686</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D29">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1572,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1580,25 +1634,25 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0642504118616145</v>
+        <v>0.05427631578947369</v>
       </c>
       <c r="C30">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D30">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E30">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>568</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
